--- a/Processing in Spreadsheet/employees.xlsx
+++ b/Processing in Spreadsheet/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-115-15\Desktop\pvd\Processing in Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komputer\code\data\pvd\Processing in Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C5EE8C-512B-4C14-843B-5C4CA352F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC5E9C-0D70-4285-BD52-31E49F84E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26192" yWindow="-95" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="2" r:id="rId1"/>
@@ -420,19 +420,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -466,16 +467,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340923</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340923</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135686</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -511,8 +512,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8067675" y="2114550"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="9881738" y="1537299"/>
+              <a:ext cx="1863306" cy="2402636"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -588,7 +589,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <customFilters>
-        <customFilter operator="lessThanOrEqual" val="50"/>
+        <customFilter operator="lessThan" val="50"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -602,8 +603,8 @@
     <tableColumn id="4" xr3:uid="{8188FD6E-570B-4111-BCFC-F60F4C924EDE}" uniqueName="4" name="age" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{D58949A1-5CE5-450D-9224-35BCEA97FDFF}" uniqueName="5" name="country" queryTableFieldId="5" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{4DDFCE76-6335-4794-9F9B-456E449BF365}" uniqueName="6" name="job_title" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{801AF02F-9EB4-4367-A1BB-C18B83DB3EF3}" uniqueName="7" name="start_date" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{9F6C3F85-2169-497D-92F7-7DA5526D1CA2}" uniqueName="8" name="salary" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{801AF02F-9EB4-4367-A1BB-C18B83DB3EF3}" uniqueName="7" name="start_date" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{9F6C3F85-2169-497D-92F7-7DA5526D1CA2}" uniqueName="8" name="salary" queryTableFieldId="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,19 +876,19 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -917,535 +918,536 @@
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D9">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D10">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D11">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D12">
         <v>61</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F12" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D13">
         <v>60</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D14">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D15">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D16">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D17">
         <v>56</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D18">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D19">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="D20">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D14">
+      <c r="D21">
         <v>58</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E21" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -1458,7 +1460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
